--- a/public/sample-data/pricing_v2.xlsx
+++ b/public/sample-data/pricing_v2.xlsx
@@ -446,38 +446,38 @@
       </c>
       <c r="G2" s="3">
         <f>F2/20*5</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
         <f>F2/20</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
         <f>F2/20*35</f>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
         <f>F2/20</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K2" s="3">
         <f>F2/20*150</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="L2" s="3">
         <f>F2/20</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
         <v>0.35</v>
       </c>
       <c r="N2" s="3">
         <f>(G2+I2+K2) + (G2+I2+K2) * M2</f>
-        <v>2565</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4">
         <f>IFERROR(N2/F2, 0)</f>
-        <v>12.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="13:13" x14ac:dyDescent="0.25">
